--- a/biology/Zoologie/Chaetodon_collare/Chaetodon_collare.xlsx
+++ b/biology/Zoologie/Chaetodon_collare/Chaetodon_collare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-papillon à collier blanc, Poisson-papillon pakistanais
 Chaetodon collare, communément nommé Poisson-papillon à collier ou Poisson-papillon à collier blanc ou Poisson-papillon pakistanais, est une espèce de poisson marin de la famille des Chaetodontidae.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut mesurer jusqu'à 18 cm[1]. La couleur du poisson-papillon à collier blanc varie du brun au noir, avec des écailles plus claires lui donnant un aspect tacheté. Il a une bande blanche verticale derrière les yeux, une raie foncée au-dessus des yeux, et une autre bande blanche, plus petite, devant les yeux. La base de la queue est d'un rouge lumineux, suivie d'une raie noire. Le bout de la queue est blanc[2].
-Le poisson-papillon à collier blanc peut quelquefois se rencontrer en bancs de plusieurs dizaines d'individus quand c'est la période de reproduction[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut mesurer jusqu'à 18 cm. La couleur du poisson-papillon à collier blanc varie du brun au noir, avec des écailles plus claires lui donnant un aspect tacheté. Il a une bande blanche verticale derrière les yeux, une raie foncée au-dessus des yeux, et une autre bande blanche, plus petite, devant les yeux. La base de la queue est d'un rouge lumineux, suivie d'une raie noire. Le bout de la queue est blanc.
+Le poisson-papillon à collier blanc peut quelquefois se rencontrer en bancs de plusieurs dizaines d'individus quand c'est la période de reproduction.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fréquente les récifs coralliens de l'Indo/ ouest Pacifique : depuis le golfe Persique et des Maldives jusqu'au Japon, les Philippines et l'Indonésie. Il nage habituellement entre 3 et 15 mètres de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les récifs coralliens de l'Indo/ ouest Pacifique : depuis le golfe Persique et des Maldives jusqu'au Japon, les Philippines et l'Indonésie. Il nage habituellement entre 3 et 15 mètres de profondeur.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la nature, il se nourrit de polypes de coraux et de petits crustacés[4]. En aquarium, c'est un carnivore, mangeant chair de poissons et crevettes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la nature, il se nourrit de polypes de coraux et de petits crustacés. En aquarium, c'est un carnivore, mangeant chair de poissons et crevettes.
 </t>
         </is>
       </c>
